--- a/test_files/data_samples/21-genes_50-edges_Dahlquist-data_Sigmoid_estimation.xlsx
+++ b/test_files/data_samples/21-genes_50-edges_Dahlquist-data_Sigmoid_estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="4575" yWindow="300" windowWidth="23340" windowHeight="10935" tabRatio="644" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="4575" yWindow="300" windowWidth="23340" windowHeight="10935" tabRatio="644"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">network!$A$1:$V$22</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -149,9 +149,6 @@
     <t>Sigmoid</t>
   </si>
   <si>
-    <t>regulators/controllers</t>
-  </si>
-  <si>
     <t>threshold_b</t>
   </si>
   <si>
@@ -174,6 +171,9 @@
   </si>
   <si>
     <t>simulation_timepoints</t>
+  </si>
+  <si>
+    <t>targets/regulators</t>
   </si>
 </sst>
 </file>
@@ -646,7 +646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -658,10 +658,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
         <v>42</v>
-      </c>
-      <c r="B1" t="s">
-        <v>43</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -954,7 +954,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="8">
         <v>1</v>
@@ -962,7 +962,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="8">
         <v>1</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="8">
         <v>15</v>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1122,9 +1122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1133,10 +1131,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1330,10 +1328,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1522,7 +1520,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="6">
         <v>15</v>
@@ -2505,7 +2503,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="6">
         <v>15</v>
@@ -3422,7 +3420,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="6">
         <v>15</v>
@@ -4339,7 +4337,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="6">
         <v>15</v>
@@ -5250,13 +5248,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="6">
         <v>15</v>
@@ -6193,7 +6193,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>11</v>
@@ -7724,7 +7724,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>

--- a/test_files/data_samples/21-genes_50-edges_Dahlquist-data_Sigmoid_estimation.xlsx
+++ b/test_files/data_samples/21-genes_50-edges_Dahlquist-data_Sigmoid_estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="4575" yWindow="300" windowWidth="23340" windowHeight="10935" tabRatio="644"/>
+    <workbookView xWindow="4575" yWindow="300" windowWidth="23340" windowHeight="10935" tabRatio="644" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="50">
   <si>
     <t>CIN5</t>
   </si>
@@ -119,9 +119,6 @@
     <t>Strain</t>
   </si>
   <si>
-    <t>Deletion</t>
-  </si>
-  <si>
     <t>wt</t>
   </si>
   <si>
@@ -174,6 +171,12 @@
   </si>
   <si>
     <t>targets/regulators</t>
+  </si>
+  <si>
+    <t>production_function</t>
+  </si>
+  <si>
+    <t>L_curve</t>
   </si>
 </sst>
 </file>
@@ -646,7 +649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -658,10 +661,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
         <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>42</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -875,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -891,18 +894,6 @@
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
@@ -952,25 +943,25 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="8">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B10" s="8">
         <v>1</v>
@@ -978,97 +969,85 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B12" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="8">
         <v>15</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>30</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="7">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <v>6</v>
-      </c>
-      <c r="F15">
-        <v>7</v>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B16" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
         <v>6</v>
       </c>
-      <c r="E16">
-        <v>8</v>
-      </c>
       <c r="F16">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1131,10 +1110,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1328,10 +1307,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1520,7 +1499,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="6">
         <v>15</v>
@@ -2503,7 +2482,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="6">
         <v>15</v>
@@ -3420,7 +3399,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="6">
         <v>15</v>
@@ -4337,7 +4316,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="6">
         <v>15</v>
@@ -5256,7 +5235,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="6">
         <v>15</v>
@@ -6193,7 +6172,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>11</v>
@@ -7724,7 +7703,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
